--- a/xlsx/通勤_intext.xlsx
+++ b/xlsx/通勤_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>台北捷運</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_通勤</t>
+    <t>台北捷运</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_通勤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E8%A1%8C</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>技術</t>
+    <t>技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>火車</t>
+    <t>火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共汽車</t>
+    <t>公共汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8A</t>
   </si>
   <si>
-    <t>單車</t>
+    <t>单车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>郊區</t>
+    <t>郊区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8C%BA</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E6%A5%AD%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商業區</t>
+    <t>中心商业区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E6%93%81%E6%93%A0</t>
   </si>
   <si>
-    <t>交通擁擠</t>
+    <t>交通拥挤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>發展</t>
+    <t>发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%AD%B8</t>
   </si>
   <si>
-    <t>通學</t>
+    <t>通学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8B%A4%E9%93%81%E8%B7%AF</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Transp-stub</t>
